--- a/projects/2/excel_training/temp/work.xlsx
+++ b/projects/2/excel_training/temp/work.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\1\study\_2_libraries\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\2\excel_training\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E597B8A4-DA62-4116-A09B-94EAA400E40D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A6625-5F7F-4A54-AFA4-C5F76BF9D8B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9552" yWindow="3432" windowWidth="18588" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Пациенты" sheetId="3" r:id="rId3"/>
+    <sheet name="Gender" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +28,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Значение</t>
   </si>
   <si>
     <t>Степень</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Бананы</t>
+  </si>
+  <si>
+    <t>Черешня</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>Женский</t>
+  </si>
+  <si>
+    <t>Группа крови</t>
   </si>
 </sst>
 </file>
@@ -350,9 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1183" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1189" sqref="C1189"/>
-    </sheetView>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9884,4 +9924,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC8B6C8-E1CD-40E6-B02B-4E9560AC0FE6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BD9602-41E0-45A5-92FE-22158855B1A0}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80CB02D-FF85-492F-9AAE-7413D96EAF92}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>